--- a/Assets/TouchToDraw/Tables/MapDataTable.xlsx
+++ b/Assets/TouchToDraw/Tables/MapDataTable.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,7 +53,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -120,14 +121,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,20 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="5" width="30.75" customWidth="1"/>
+    <col min="2" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="6" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,49 +467,53 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
